--- a/in/b1_historic_births.xlsx
+++ b/in/b1_historic_births.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s8/Coding/generational_change/in/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6E0E72-BC84-724D-A172-8E5D78844CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208009F0-250C-A647-AA4C-AB980E5E7D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8600" yWindow="2320" windowWidth="12380" windowHeight="19400" xr2:uid="{D007541E-C01E-2D4D-981F-30A82E61BDC3}"/>
   </bookViews>
@@ -53,10 +53,10 @@
     <t>birth_all</t>
   </si>
   <si>
-    <t>birth_fem</t>
+    <t>male</t>
   </si>
   <si>
-    <t>birth_male</t>
+    <t>fem</t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
   <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -440,10 +440,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
